--- a/funds/stocks/丽珠集团&财务报表同型分析.xlsx
+++ b/funds/stocks/丽珠集团&财务报表同型分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t>项目</t>
   </si>
@@ -366,22 +366,34 @@
     <t>自由现金流均值(FCF)</t>
   </si>
   <si>
+    <t>EBIT</t>
+  </si>
+  <si>
     <t>营业外支出</t>
   </si>
   <si>
     <t>折现率(r)</t>
   </si>
   <si>
+    <t>经营杠杆</t>
+  </si>
+  <si>
     <t>持续经营净利润</t>
   </si>
   <si>
     <t>永续年金增长率(g)</t>
   </si>
   <si>
+    <t>财务杠杆</t>
+  </si>
+  <si>
     <t>毛利</t>
   </si>
   <si>
     <t>自由现金流增长率(G)</t>
+  </si>
+  <si>
+    <t>总杠杆</t>
   </si>
   <si>
     <t>毛利率</t>
@@ -458,14 +470,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="\+0;\-0;0;@"/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -493,7 +505,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,69 +547,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,23 +571,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,7 +604,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,6 +621,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,13 +687,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,73 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,36 +783,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -819,13 +795,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,19 +831,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,16 +986,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,26 +1011,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1027,16 +1019,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,6 +1047,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1063,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,137 +1087,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1257,7 +1269,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,7 +1299,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1707,16 +1722,16 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3" t="s">
@@ -1734,7 +1749,7 @@
       <c r="F4" s="2">
         <v>74.16</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="34" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1764,7 +1779,7 @@
       <c r="F5" s="2">
         <v>25.08</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1792,7 +1807,7 @@
       <c r="F6" s="2">
         <v>13.57</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1820,7 +1835,7 @@
       <c r="F7" s="2">
         <v>1.26</v>
       </c>
-      <c r="H7" s="43"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1848,7 +1863,7 @@
       <c r="F8" s="2">
         <v>11.03</v>
       </c>
-      <c r="H8" s="43"/>
+      <c r="H8" s="44"/>
       <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1876,7 +1891,7 @@
       <c r="F9" s="5">
         <v>113.6</v>
       </c>
-      <c r="H9" s="43"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1895,19 +1910,19 @@
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="45">
         <f>D4/D9</f>
         <v>0.687873844480696</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="45">
         <f>E4/E9</f>
         <v>0.688582424631174</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="45">
         <f>F4/F9</f>
         <v>0.652816901408451</v>
       </c>
-      <c r="H10" s="43"/>
+      <c r="H10" s="44"/>
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1926,19 +1941,19 @@
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="45">
         <f>D5/D9</f>
         <v>0.188378777285792</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="45">
         <f>E5/E9</f>
         <v>0.193313021167415</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="45">
         <f>F5/F9</f>
         <v>0.220774647887324</v>
       </c>
-      <c r="H11" s="43"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1957,31 +1972,31 @@
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="45">
         <f>D6/D9</f>
         <v>0.114347859861726</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="45">
         <f>E6/E9</f>
         <v>0.110808210391276</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="45">
         <f>F6/F9</f>
         <v>0.119454225352113</v>
       </c>
-      <c r="H12" s="43"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="45">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>0.258027956176804</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="45">
         <f t="shared" si="0"/>
         <v>0.279329608938547</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1991,31 +2006,31 @@
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="45">
         <f>D7/D9</f>
         <v>0.0144488464227453</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="45">
         <f>E7/E9</f>
         <v>0.0136305323925593</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="45">
         <f>F7/F9</f>
         <v>0.0110915492957746</v>
       </c>
-      <c r="H13" s="43"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="45">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>0.135247449943332</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="45">
         <f t="shared" si="1"/>
         <v>0.13389199255121</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="45">
         <f t="shared" si="1"/>
         <v>0.150079347086828</v>
       </c>
@@ -2025,31 +2040,31 @@
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="45">
         <f>D8/D9</f>
         <v>0.090810222947254</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="45">
         <f>E8/E9</f>
         <v>0.0895606157793457</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="45">
         <f>F8/F9</f>
         <v>0.0970950704225352</v>
       </c>
-      <c r="H14" s="43"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="45">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>0.103324518322629</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="45">
         <f t="shared" si="2"/>
         <v>0.118435754189944</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="45">
         <f t="shared" si="2"/>
         <v>0.127408750850147</v>
       </c>
@@ -2070,19 +2085,19 @@
       <c r="F15" s="2">
         <v>0.92598</v>
       </c>
-      <c r="H15" s="43"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="45">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>0.0287117491499811</v>
       </c>
-      <c r="K15" s="44">
+      <c r="K15" s="45">
         <f t="shared" si="3"/>
         <v>0.0216014897579143</v>
       </c>
-      <c r="L15" s="44">
+      <c r="L15" s="45">
         <f t="shared" si="3"/>
         <v>0.0260711856721832</v>
       </c>
@@ -2101,19 +2116,19 @@
       <c r="F16" s="2">
         <v>1.84</v>
       </c>
-      <c r="H16" s="43"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="45">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>0.0525122780506233</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="45">
         <f t="shared" si="4"/>
         <v>0.0346368715083799</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="45">
         <f t="shared" si="4"/>
         <v>0.0367263659034233</v>
       </c>
@@ -2132,19 +2147,19 @@
       <c r="F17" s="2">
         <v>33.21</v>
       </c>
-      <c r="H17" s="43"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="45">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>0.0421231582924065</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="45">
         <f t="shared" si="5"/>
         <v>0.0456238361266294</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="45">
         <f t="shared" si="5"/>
         <v>0.237134436635684</v>
       </c>
@@ -2163,19 +2178,19 @@
       <c r="F18" s="2">
         <v>0.702793</v>
       </c>
-      <c r="H18" s="43"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="45">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>0</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="45">
         <f t="shared" si="6"/>
         <v>0.348230912476722</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="45">
         <f t="shared" si="6"/>
         <v>0.397415552029018</v>
       </c>
@@ -2327,15 +2342,15 @@
       <c r="C24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="45">
         <f>D15/D23</f>
         <v>0.0335097001763668</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="45">
         <f>E15/E23</f>
         <v>0.0378574305275876</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="45">
         <f>F15/F23</f>
         <v>0.0204050242397532</v>
       </c>
@@ -2358,15 +2373,15 @@
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="45">
         <f>D16/D23</f>
         <v>0.0940623162845385</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="45">
         <f>E16/E23</f>
         <v>0.0821586790173178</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="45">
         <f>F16/F23</f>
         <v>0.0405464962538563</v>
       </c>
@@ -2374,15 +2389,15 @@
       <c r="I25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="45">
         <f t="shared" ref="J25:L25" si="7">J19/J24</f>
         <v>0</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="45">
         <f t="shared" si="7"/>
         <v>0.00220125786163522</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="45">
         <f t="shared" si="7"/>
         <v>0.00276679841897233</v>
       </c>
@@ -2392,15 +2407,15 @@
       <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="45">
         <f>D17/D23</f>
         <v>0.619243582206545</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="45">
         <f>E17/E23</f>
         <v>0.648006443817962</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="45">
         <f>F17/F23</f>
         <v>0.73182018510357</v>
       </c>
@@ -2408,15 +2423,15 @@
       <c r="I26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="45">
         <f t="shared" ref="J26:L26" si="8">J20/J24</f>
         <v>0</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L26" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2426,15 +2441,15 @@
       <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="45">
         <f>D18/D23</f>
         <v>0</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="45">
         <f>E18/E23</f>
         <v>0.0372533225936367</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="45">
         <f>F18/F23</f>
         <v>0.0154868444248568</v>
       </c>
@@ -2442,15 +2457,15 @@
       <c r="I27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="45">
         <f t="shared" ref="J27:L27" si="9">J21/J24</f>
         <v>0.222757352941176</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="45">
         <f t="shared" si="9"/>
         <v>0.171319811320755</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="45">
         <f t="shared" si="9"/>
         <v>0.104870750988142</v>
       </c>
@@ -2460,15 +2475,15 @@
       <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="45">
         <f>D19/D23</f>
         <v>0.0217519106407995</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="45">
         <f>E19/E23</f>
         <v>0.0227547321788159</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="45">
         <f>F19/F23</f>
         <v>0.0255619215513442</v>
       </c>
@@ -2476,15 +2491,15 @@
       <c r="I28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="45">
         <f t="shared" ref="J28:L28" si="10">J22/J24</f>
         <v>0.605392156862745</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="45">
         <f t="shared" si="10"/>
         <v>0.827044025157233</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="45">
         <f t="shared" si="10"/>
         <v>0.893280632411067</v>
       </c>
@@ -2494,15 +2509,15 @@
       <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="45">
         <f>D20/D23</f>
         <v>0.045071526553008</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="45">
         <f>E20/E23</f>
         <v>0.0491341119613371</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="45">
         <f>F20/F23</f>
         <v>0.0581754076685765</v>
       </c>
@@ -2510,15 +2525,15 @@
       <c r="I29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="45">
         <f t="shared" ref="J29:L29" si="11">J23/J24</f>
         <v>0.17156862745098</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L29" s="44">
+      <c r="L29" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2528,15 +2543,15 @@
       <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="44">
+      <c r="D30" s="45">
         <f>D21/D23</f>
         <v>0.0291985106799922</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="45">
         <f>E21/E23</f>
         <v>0.0163404349577124</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="45">
         <f>F21/F23</f>
         <v>0.00558151167915381</v>
       </c>
@@ -2546,15 +2561,15 @@
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="45">
         <f>D22/D23</f>
         <v>0.0201842053693906</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="45">
         <f>E22/E23</f>
         <v>0.0207410390656464</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="45">
         <f>F22/F23</f>
         <v>0.0226972234464522</v>
       </c>
@@ -2810,7 +2825,7 @@
       <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="24">
@@ -2823,31 +2838,31 @@
         <v>0.185988</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="38">
         <v>2.47</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="38">
         <v>2.63</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="38">
         <v>2.26</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="3"/>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="32">
         <v>1.71</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="32">
         <v>1.88</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="32">
         <v>0.92598</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -2868,16 +2883,16 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="3"/>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="31">
-        <v>0</v>
-      </c>
-      <c r="E12" s="31">
-        <v>0</v>
-      </c>
-      <c r="F12" s="31">
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
         <v>0</v>
       </c>
       <c r="H12" s="3"/>
@@ -2896,16 +2911,16 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="3"/>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="32">
         <v>0.108281</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="32">
         <v>0.202998</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="32">
         <v>0</v>
       </c>
       <c r="H13" s="3"/>
@@ -2924,16 +2939,16 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="3"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="31">
-        <v>0</v>
-      </c>
-      <c r="E14" s="31">
-        <v>0</v>
-      </c>
-      <c r="F14" s="31">
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
         <v>0.059451</v>
       </c>
       <c r="H14" s="3"/>
@@ -2952,16 +2967,16 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="3"/>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="32">
         <v>0.11475</v>
       </c>
-      <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="31">
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
         <v>0</v>
       </c>
       <c r="H15" s="3"/>
@@ -2980,16 +2995,16 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="3"/>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="32">
         <v>1.83</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="32">
         <v>1.42</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="32">
         <v>1.27</v>
       </c>
       <c r="H16" s="3"/>
@@ -3008,16 +3023,16 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="3"/>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="32">
         <v>0.174973</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="32">
         <v>0.108691</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="32">
         <v>0</v>
       </c>
       <c r="H17" s="3"/>
@@ -3035,7 +3050,7 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="32"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3063,25 +3078,25 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="36">
         <f>SUM(D4:D9)/D18</f>
         <v>0.963006230529595</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="36">
         <f>SUM(E4:E9)/E18</f>
         <v>0.972644376899696</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="36">
         <f>SUM(F4:F9)/F18</f>
         <v>1.00446597056233</v>
       </c>
-      <c r="H19" s="32"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="24" t="s">
         <v>80</v>
       </c>
@@ -3096,55 +3111,55 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="36"/>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="36">
         <f>SUM(D10:D17)/D18</f>
         <v>0.0228633900756564</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="36">
         <f>SUM(E10:E17)/E18</f>
         <v>0.0216266330217354</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="36">
         <f>SUM(F10:F17)/F18</f>
         <v>0.0153567681469367</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="39">
         <f>SUM(J4:J10)/J19</f>
         <v>0.395349061568146</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="39">
         <f>SUM(K4:K10)/K19</f>
         <v>0.390272498681203</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="39">
         <f>SUM(L4:L10)/L19</f>
         <v>0.600242774442539</v>
       </c>
     </row>
     <row r="21" spans="8:12">
       <c r="H21" s="3"/>
-      <c r="I21" s="34" t="s">
+      <c r="I21" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="39">
         <f>SUM(J11:J18)/J19</f>
         <v>0.254550675320119</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="39">
         <f>SUM(K11:K18)/K19</f>
         <v>0.281253671531563</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="39">
         <f>SUM(L11:L18)/L19</f>
         <v>0.0376267152658662</v>
       </c>
@@ -3154,15 +3169,15 @@
       <c r="I22" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="40">
         <f>SUM(J3:J10)/D18</f>
         <v>0.125383010680908</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="40">
         <f>SUM(K3:K10)/E18</f>
         <v>0.127285639731605</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="40">
         <f>SUM(L3:L10)/F18</f>
         <v>0.17609336394515</v>
       </c>
@@ -3172,15 +3187,15 @@
       <c r="I23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="40">
         <f>SUM(J13:J18)/D18</f>
         <v>0.0757128337783712</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="40">
         <f>SUM(K13:K18)/E18</f>
         <v>0.0861359752250961</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="40">
         <f>SUM(L13:L18)/F18</f>
         <v>0.00028248836331614</v>
       </c>
@@ -3207,7 +3222,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K16" sqref="K16:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3587,7 +3602,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:12">
       <c r="B16" s="2" t="s">
         <v>113</v>
       </c>
@@ -3611,11 +3626,17 @@
         <v>6.83969866666667</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="2:11">
+      <c r="K16" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="28">
+        <f>C18+C10+C6</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2">
         <v>0.137942</v>
@@ -3628,17 +3649,23 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="28">
+        <v>118</v>
+      </c>
+      <c r="I17" s="29">
         <v>0.08</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="K17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="28">
+        <f>(L16+C7+C8+C9)/L16</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2">
         <v>14.62</v>
@@ -3651,17 +3678,23 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="28">
+        <v>121</v>
+      </c>
+      <c r="I18" s="29">
         <v>0.03</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="2:11">
+      <c r="K18" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="28">
+        <f>L16/(L16-C10)</f>
+        <v>0.859325270528326</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C19" s="12">
         <f>C4-C5</f>
@@ -3677,17 +3710,23 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="28">
+        <v>124</v>
+      </c>
+      <c r="I19" s="29">
         <v>0.1</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="28">
+        <f>L17*L18</f>
+        <v>3.6950986632718</v>
+      </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C20" s="13">
         <f>C19/C4</f>
@@ -3703,9 +3742,9 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="29">
+        <v>127</v>
+      </c>
+      <c r="I20" s="30">
         <v>9.39</v>
       </c>
       <c r="J20" s="8"/>
@@ -3713,7 +3752,7 @@
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C21" s="14">
         <f>C4-C5-C6-C7-C8-C9-C10</f>
@@ -3729,7 +3768,7 @@
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I21" s="10">
         <f>I16*(1+I19)/POWER(1+I17,1)</f>
@@ -3740,7 +3779,7 @@
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C22" s="15">
         <f>C21/C4</f>
@@ -3756,7 +3795,7 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I22" s="10">
         <f>I16*POWER(1+I19,2)/POWER(1+I17,2)</f>
@@ -3767,7 +3806,7 @@
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C23" s="17">
         <f>C21/I4</f>
@@ -3783,7 +3822,7 @@
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I23" s="10">
         <f>I16*POWER(1+I19,3)/POWER(1+I17,3)</f>
@@ -3794,7 +3833,7 @@
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C24" s="19">
         <f>C9/C4</f>
@@ -3810,7 +3849,7 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I24" s="10">
         <f>(SUM(I21:I23)*(1+I18))/I17-I18</f>
@@ -3821,7 +3860,7 @@
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C25" s="20">
         <f>C7/C4</f>
@@ -3837,7 +3876,7 @@
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I25" s="10">
         <f>SUM(I21:I24)</f>
@@ -3848,7 +3887,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C26" s="20">
         <f>C8/C4</f>
@@ -3864,7 +3903,7 @@
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I26" s="22">
         <f>I25/I20</f>
@@ -3873,7 +3912,7 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C27" s="20">
         <f>C16/C4</f>
@@ -3890,7 +3929,7 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C28" s="20">
         <f>C18/C4</f>
@@ -3905,12 +3944,12 @@
         <v>0.526081350369242</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="30">
+        <v>143</v>
+      </c>
+      <c r="I28" s="31">
         <v>0.1</v>
       </c>
       <c r="J28" s="2"/>
@@ -3918,9 +3957,9 @@
     <row r="29" spans="7:10">
       <c r="G29" s="25"/>
       <c r="H29" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="30">
+        <v>144</v>
+      </c>
+      <c r="I29" s="31">
         <v>0.04</v>
       </c>
       <c r="J29" s="24">
@@ -3931,9 +3970,9 @@
     <row r="30" spans="7:10">
       <c r="G30" s="25"/>
       <c r="H30" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I30" s="30">
+        <v>145</v>
+      </c>
+      <c r="I30" s="31">
         <v>0.02</v>
       </c>
       <c r="J30" s="24">
@@ -3944,7 +3983,7 @@
     <row r="31" spans="7:10">
       <c r="G31" s="25"/>
       <c r="H31" s="24" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I31" s="24">
         <f>(C18*POWER(1+I28,3))*J29</f>
@@ -3958,7 +3997,7 @@
     <row r="32" spans="7:10">
       <c r="G32" s="25"/>
       <c r="H32" s="24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I32" s="24">
         <f>I31*0.7</f>
@@ -3972,7 +4011,7 @@
     <row r="33" spans="7:10">
       <c r="G33" s="26"/>
       <c r="H33" s="24" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I33" s="24">
         <f>(C18*POWER(1+I28,3))*J30</f>

--- a/funds/stocks/丽珠集团&财务报表同型分析.xlsx
+++ b/funds/stocks/丽珠集团&财务报表同型分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="149">
   <si>
     <t>项目</t>
   </si>
@@ -366,40 +366,40 @@
     <t>自由现金流均值(FCF)</t>
   </si>
   <si>
+    <t>营业外支出</t>
+  </si>
+  <si>
+    <t>折现率(r)</t>
+  </si>
+  <si>
     <t>EBIT</t>
   </si>
   <si>
-    <t>营业外支出</t>
-  </si>
-  <si>
-    <t>折现率(r)</t>
+    <t>持续经营净利润</t>
+  </si>
+  <si>
+    <t>永续年金增长率(g)</t>
   </si>
   <si>
     <t>经营杠杆</t>
   </si>
   <si>
-    <t>持续经营净利润</t>
-  </si>
-  <si>
-    <t>永续年金增长率(g)</t>
+    <t>毛利</t>
+  </si>
+  <si>
+    <t>自由现金流增长率(G)</t>
   </si>
   <si>
     <t>财务杠杆</t>
   </si>
   <si>
-    <t>毛利</t>
-  </si>
-  <si>
-    <t>自由现金流增长率(G)</t>
+    <t>毛利率</t>
+  </si>
+  <si>
+    <t>总股本</t>
   </si>
   <si>
     <t>总杠杆</t>
-  </si>
-  <si>
-    <t>毛利率</t>
-  </si>
-  <si>
-    <t>总股本</t>
   </si>
   <si>
     <t>核心利润</t>
@@ -470,13 +470,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
   <fonts count="22">
@@ -505,7 +505,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,15 +518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,17 +533,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,22 +572,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -596,38 +603,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,10 +626,25 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -687,7 +687,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,25 +789,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +813,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,67 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,55 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,17 +970,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,20 +996,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,17 +1041,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,10 +1061,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1075,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,137 +1087,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,7 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1257,7 +1257,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1269,7 +1269,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1302,11 +1302,20 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1722,16 +1731,16 @@
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="3" t="s">
@@ -1749,7 +1758,7 @@
       <c r="F4" s="2">
         <v>74.16</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="37" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1779,7 +1788,7 @@
       <c r="F5" s="2">
         <v>25.08</v>
       </c>
-      <c r="H5" s="44"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1816,7 @@
       <c r="F6" s="2">
         <v>13.57</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1835,7 +1844,7 @@
       <c r="F7" s="2">
         <v>1.26</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1863,7 +1872,7 @@
       <c r="F8" s="2">
         <v>11.03</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1891,7 +1900,7 @@
       <c r="F9" s="5">
         <v>113.6</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1910,19 +1919,19 @@
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="48">
         <f>D4/D9</f>
         <v>0.687873844480696</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="48">
         <f>E4/E9</f>
         <v>0.688582424631174</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="48">
         <f>F4/F9</f>
         <v>0.652816901408451</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1941,19 +1950,19 @@
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="48">
         <f>D5/D9</f>
         <v>0.188378777285792</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="48">
         <f>E5/E9</f>
         <v>0.193313021167415</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="48">
         <f>F5/F9</f>
         <v>0.220774647887324</v>
       </c>
-      <c r="H11" s="44"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1972,31 +1981,31 @@
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="48">
         <f>D6/D9</f>
         <v>0.114347859861726</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="48">
         <f>E6/E9</f>
         <v>0.110808210391276</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="48">
         <f>F6/F9</f>
         <v>0.119454225352113</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="48">
         <f t="shared" ref="J12:L12" si="0">J4/J11</f>
         <v>0.258027956176804</v>
       </c>
-      <c r="K12" s="45">
+      <c r="K12" s="48">
         <f t="shared" si="0"/>
         <v>0.279329608938547</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2006,31 +2015,31 @@
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="48">
         <f>D7/D9</f>
         <v>0.0144488464227453</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="48">
         <f>E7/E9</f>
         <v>0.0136305323925593</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="48">
         <f>F7/F9</f>
         <v>0.0110915492957746</v>
       </c>
-      <c r="H13" s="44"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="48">
         <f t="shared" ref="J13:L13" si="1">J5/J11</f>
         <v>0.135247449943332</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="48">
         <f t="shared" si="1"/>
         <v>0.13389199255121</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="48">
         <f t="shared" si="1"/>
         <v>0.150079347086828</v>
       </c>
@@ -2040,31 +2049,31 @@
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="48">
         <f>D8/D9</f>
         <v>0.090810222947254</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="48">
         <f>E8/E9</f>
         <v>0.0895606157793457</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="48">
         <f>F8/F9</f>
         <v>0.0970950704225352</v>
       </c>
-      <c r="H14" s="44"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="48">
         <f t="shared" ref="J14:L14" si="2">J6/J11</f>
         <v>0.103324518322629</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="48">
         <f t="shared" si="2"/>
         <v>0.118435754189944</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="48">
         <f t="shared" si="2"/>
         <v>0.127408750850147</v>
       </c>
@@ -2085,19 +2094,19 @@
       <c r="F15" s="2">
         <v>0.92598</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="48">
         <f t="shared" ref="J15:L15" si="3">J7/J11</f>
         <v>0.0287117491499811</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="48">
         <f t="shared" si="3"/>
         <v>0.0216014897579143</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="48">
         <f t="shared" si="3"/>
         <v>0.0260711856721832</v>
       </c>
@@ -2116,19 +2125,19 @@
       <c r="F16" s="2">
         <v>1.84</v>
       </c>
-      <c r="H16" s="44"/>
+      <c r="H16" s="47"/>
       <c r="I16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="48">
         <f t="shared" ref="J16:L16" si="4">J8/J11</f>
         <v>0.0525122780506233</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="48">
         <f t="shared" si="4"/>
         <v>0.0346368715083799</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="48">
         <f t="shared" si="4"/>
         <v>0.0367263659034233</v>
       </c>
@@ -2147,19 +2156,19 @@
       <c r="F17" s="2">
         <v>33.21</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="48">
         <f t="shared" ref="J17:L17" si="5">J9/J11</f>
         <v>0.0421231582924065</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="48">
         <f t="shared" si="5"/>
         <v>0.0456238361266294</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="48">
         <f t="shared" si="5"/>
         <v>0.237134436635684</v>
       </c>
@@ -2178,19 +2187,19 @@
       <c r="F18" s="2">
         <v>0.702793</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="48">
         <f t="shared" ref="J18:L18" si="6">J10/J11</f>
         <v>0</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="48">
         <f t="shared" si="6"/>
         <v>0.348230912476722</v>
       </c>
-      <c r="L18" s="45">
+      <c r="L18" s="48">
         <f t="shared" si="6"/>
         <v>0.397415552029018</v>
       </c>
@@ -2342,15 +2351,15 @@
       <c r="C24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="48">
         <f>D15/D23</f>
         <v>0.0335097001763668</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="48">
         <f>E15/E23</f>
         <v>0.0378574305275876</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="48">
         <f>F15/F23</f>
         <v>0.0204050242397532</v>
       </c>
@@ -2373,15 +2382,15 @@
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="48">
         <f>D16/D23</f>
         <v>0.0940623162845385</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="48">
         <f>E16/E23</f>
         <v>0.0821586790173178</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="48">
         <f>F16/F23</f>
         <v>0.0405464962538563</v>
       </c>
@@ -2389,15 +2398,15 @@
       <c r="I25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="48">
         <f t="shared" ref="J25:L25" si="7">J19/J24</f>
         <v>0</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="48">
         <f t="shared" si="7"/>
         <v>0.00220125786163522</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="48">
         <f t="shared" si="7"/>
         <v>0.00276679841897233</v>
       </c>
@@ -2407,15 +2416,15 @@
       <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="48">
         <f>D17/D23</f>
         <v>0.619243582206545</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="48">
         <f>E17/E23</f>
         <v>0.648006443817962</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="48">
         <f>F17/F23</f>
         <v>0.73182018510357</v>
       </c>
@@ -2423,15 +2432,15 @@
       <c r="I26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="48">
         <f t="shared" ref="J26:L26" si="8">J20/J24</f>
         <v>0</v>
       </c>
-      <c r="K26" s="45">
+      <c r="K26" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="48">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2441,15 +2450,15 @@
       <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="48">
         <f>D18/D23</f>
         <v>0</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="48">
         <f>E18/E23</f>
         <v>0.0372533225936367</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="48">
         <f>F18/F23</f>
         <v>0.0154868444248568</v>
       </c>
@@ -2457,15 +2466,15 @@
       <c r="I27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="48">
         <f t="shared" ref="J27:L27" si="9">J21/J24</f>
         <v>0.222757352941176</v>
       </c>
-      <c r="K27" s="45">
+      <c r="K27" s="48">
         <f t="shared" si="9"/>
         <v>0.171319811320755</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="48">
         <f t="shared" si="9"/>
         <v>0.104870750988142</v>
       </c>
@@ -2475,15 +2484,15 @@
       <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="48">
         <f>D19/D23</f>
         <v>0.0217519106407995</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="48">
         <f>E19/E23</f>
         <v>0.0227547321788159</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="48">
         <f>F19/F23</f>
         <v>0.0255619215513442</v>
       </c>
@@ -2491,15 +2500,15 @@
       <c r="I28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="48">
         <f t="shared" ref="J28:L28" si="10">J22/J24</f>
         <v>0.605392156862745</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="48">
         <f t="shared" si="10"/>
         <v>0.827044025157233</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="48">
         <f t="shared" si="10"/>
         <v>0.893280632411067</v>
       </c>
@@ -2509,15 +2518,15 @@
       <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="48">
         <f>D20/D23</f>
         <v>0.045071526553008</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="48">
         <f>E20/E23</f>
         <v>0.0491341119613371</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="48">
         <f>F20/F23</f>
         <v>0.0581754076685765</v>
       </c>
@@ -2525,15 +2534,15 @@
       <c r="I29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="48">
         <f t="shared" ref="J29:L29" si="11">J23/J24</f>
         <v>0.17156862745098</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="48">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="48">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2543,15 +2552,15 @@
       <c r="C30" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="48">
         <f>D21/D23</f>
         <v>0.0291985106799922</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="48">
         <f>E21/E23</f>
         <v>0.0163404349577124</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="48">
         <f>F21/F23</f>
         <v>0.00558151167915381</v>
       </c>
@@ -2561,15 +2570,15 @@
       <c r="C31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="48">
         <f>D22/D23</f>
         <v>0.0201842053693906</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="48">
         <f>E22/E23</f>
         <v>0.0207410390656464</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="48">
         <f>F22/F23</f>
         <v>0.0226972234464522</v>
       </c>
@@ -2825,7 +2834,7 @@
       <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="35" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="24">
@@ -2838,31 +2847,31 @@
         <v>0.185988</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="41">
         <v>2.47</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="41">
         <v>2.63</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="41">
         <v>2.26</v>
       </c>
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="3"/>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="35">
         <v>1.71</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="35">
         <v>1.88</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="35">
         <v>0.92598</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -2883,16 +2892,16 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="3"/>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="32">
-        <v>0</v>
-      </c>
-      <c r="E12" s="32">
-        <v>0</v>
-      </c>
-      <c r="F12" s="32">
+      <c r="D12" s="35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35">
         <v>0</v>
       </c>
       <c r="H12" s="3"/>
@@ -2911,16 +2920,16 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="3"/>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="35">
         <v>0.108281</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="35">
         <v>0.202998</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="35">
         <v>0</v>
       </c>
       <c r="H13" s="3"/>
@@ -2939,16 +2948,16 @@
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="3"/>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="32">
-        <v>0</v>
-      </c>
-      <c r="E14" s="32">
-        <v>0</v>
-      </c>
-      <c r="F14" s="32">
+      <c r="D14" s="35">
+        <v>0</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="35">
         <v>0.059451</v>
       </c>
       <c r="H14" s="3"/>
@@ -2967,16 +2976,16 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="3"/>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="35">
         <v>0.11475</v>
       </c>
-      <c r="E15" s="32">
-        <v>0</v>
-      </c>
-      <c r="F15" s="32">
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35">
         <v>0</v>
       </c>
       <c r="H15" s="3"/>
@@ -2995,16 +3004,16 @@
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="3"/>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="35">
         <v>1.83</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="35">
         <v>1.42</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="35">
         <v>1.27</v>
       </c>
       <c r="H16" s="3"/>
@@ -3023,16 +3032,16 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="3"/>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="35">
         <v>0.174973</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="35">
         <v>0.108691</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="35">
         <v>0</v>
       </c>
       <c r="H17" s="3"/>
@@ -3050,7 +3059,7 @@
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="33"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
@@ -3078,25 +3087,25 @@
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="39">
         <f>SUM(D4:D9)/D18</f>
         <v>0.963006230529595</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="39">
         <f>SUM(E4:E9)/E18</f>
         <v>0.972644376899696</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="39">
         <f>SUM(F4:F9)/F18</f>
         <v>1.00446597056233</v>
       </c>
-      <c r="H19" s="33"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="24" t="s">
         <v>80</v>
       </c>
@@ -3111,55 +3120,55 @@
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="37"/>
-      <c r="C20" s="35" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="39">
         <f>SUM(D10:D17)/D18</f>
         <v>0.0228633900756564</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="39">
         <f>SUM(E10:E17)/E18</f>
         <v>0.0216266330217354</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="39">
         <f>SUM(F10:F17)/F18</f>
         <v>0.0153567681469367</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="42">
         <f>SUM(J4:J10)/J19</f>
         <v>0.395349061568146</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="42">
         <f>SUM(K4:K10)/K19</f>
         <v>0.390272498681203</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="42">
         <f>SUM(L4:L10)/L19</f>
         <v>0.600242774442539</v>
       </c>
     </row>
     <row r="21" spans="8:12">
       <c r="H21" s="3"/>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="42">
         <f>SUM(J11:J18)/J19</f>
         <v>0.254550675320119</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="42">
         <f>SUM(K11:K18)/K19</f>
         <v>0.281253671531563</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="42">
         <f>SUM(L11:L18)/L19</f>
         <v>0.0376267152658662</v>
       </c>
@@ -3169,15 +3178,15 @@
       <c r="I22" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="43">
         <f>SUM(J3:J10)/D18</f>
         <v>0.125383010680908</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="43">
         <f>SUM(K3:K10)/E18</f>
         <v>0.127285639731605</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="43">
         <f>SUM(L3:L10)/F18</f>
         <v>0.17609336394515</v>
       </c>
@@ -3187,15 +3196,15 @@
       <c r="I23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="43">
         <f>SUM(J13:J18)/D18</f>
         <v>0.0757128337783712</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="43">
         <f>SUM(K13:K18)/E18</f>
         <v>0.0861359752250961</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="43">
         <f>SUM(L13:L18)/F18</f>
         <v>0.00028248836331614</v>
       </c>
@@ -3219,10 +3228,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L33"/>
+  <dimension ref="B2:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16:L19"/>
+      <selection activeCell="K18" sqref="K18:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3602,7 +3611,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:14">
       <c r="B16" s="2" t="s">
         <v>113</v>
       </c>
@@ -3626,46 +3635,59 @@
         <v>6.83969866666667</v>
       </c>
       <c r="J16" s="8"/>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <v>2019</v>
+      </c>
+      <c r="M16" s="29">
+        <v>2018</v>
+      </c>
+      <c r="N16" s="29">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L16" s="28">
+      <c r="C17" s="2">
+        <v>0.137942</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.347197</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.247979</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="32">
         <f>C18+C10+C6</f>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.137942</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.347197</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.247979</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="29">
-        <v>0.08</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="24" t="s">
+      <c r="M17" s="32">
+        <f>D18+D10+D6</f>
+        <v>10.48</v>
+      </c>
+      <c r="N17" s="32">
+        <f>E18+E10+E6</f>
+        <v>45.779922</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="28">
-        <f>(L16+C7+C8+C9)/L16</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C18" s="2">
         <v>14.62</v>
@@ -3678,23 +3700,31 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I18" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="I18" s="29">
-        <v>0.03</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="24" t="s">
+      <c r="L18" s="32">
+        <f>(L17+C7+C8+C9)/L17</f>
+        <v>4.3</v>
+      </c>
+      <c r="M18" s="32">
+        <f>(M17+F7+F8+F9)/M17</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="32">
+        <f>(N17+F8+F9+F10)/N17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="L18" s="28">
-        <f>L16/(L16-C10)</f>
-        <v>0.859325270528326</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="C19" s="12">
         <f>C4-C5</f>
@@ -3710,23 +3740,31 @@
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="29">
-        <v>0.1</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="24" t="s">
+      <c r="L19" s="32">
+        <f>L17/(L17-C10)</f>
+        <v>0.859325270528326</v>
+      </c>
+      <c r="M19" s="32">
+        <f>M17/(M17-F10)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="32">
+        <f>N17/(N17-F11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="L19" s="28">
-        <f>L17*L18</f>
-        <v>3.6950986632718</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="C20" s="13">
         <f>C19/C4</f>
@@ -3742,13 +3780,27 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="33">
+        <v>9.39</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="30">
-        <v>9.39</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="L20" s="32">
+        <f t="shared" ref="L20:N20" si="0">L18*L19</f>
+        <v>3.6950986632718</v>
+      </c>
+      <c r="M20" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="14" t="s">
@@ -3949,7 +4001,7 @@
       <c r="H28" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="34">
         <v>0.1</v>
       </c>
       <c r="J28" s="2"/>
@@ -3959,7 +4011,7 @@
       <c r="H29" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="34">
         <v>0.04</v>
       </c>
       <c r="J29" s="24">
@@ -3972,7 +4024,7 @@
       <c r="H30" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I30" s="34">
         <v>0.02</v>
       </c>
       <c r="J30" s="24">
